--- a/test/compatibility/basic-arithmetic.xlsx
+++ b/test/compatibility/basic-arithmetic.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuba/HotNoBackup/hyperformula/test/compatibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D33D1-ABDE-8442-BC66-18CF094B3C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1187969-3D22-AD46-B61A-DF472C7424AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{EBEC028A-71E6-854B-8272-C67DFCDD21E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
